--- a/data/trans_orig/P13A_1_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6901</v>
+        <v>7415</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004581664957551255</v>
+        <v>0.004581664957551254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001042428459909383</v>
+        <v>0.001084261533003559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01260035901501551</v>
+        <v>0.01353829903756104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -762,19 +762,19 @@
         <v>14290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8675</v>
+        <v>8419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23572</v>
+        <v>23593</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02944067572399352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01787329510034428</v>
+        <v>0.0173463671397117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04856536234254871</v>
+        <v>0.04860733683296323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>16799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11162</v>
+        <v>10368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26999</v>
+        <v>26727</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01626138371461893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0108046601948358</v>
+        <v>0.01003617405442444</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02613486738765499</v>
+        <v>0.02587103503225399</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>545184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>540792</v>
+        <v>540278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547122</v>
+        <v>547099</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9954183350424488</v>
+        <v>0.9954183350424486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9873996409849841</v>
+        <v>0.9864617009624388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9989575715400903</v>
+        <v>0.9989157384669964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>666</v>
@@ -833,19 +833,19 @@
         <v>471085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461803</v>
+        <v>461782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>476700</v>
+        <v>476956</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9705593242760066</v>
+        <v>0.9705593242760064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9514346376574522</v>
+        <v>0.9513926631670369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9821267048996559</v>
+        <v>0.9826536328602887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1214</v>
@@ -854,19 +854,19 @@
         <v>1016269</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1006069</v>
+        <v>1006341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1021906</v>
+        <v>1022700</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9837386162853813</v>
+        <v>0.9837386162853812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9738651326123451</v>
+        <v>0.974128964967746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891953398051642</v>
+        <v>0.9899638259455754</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5632</v>
+        <v>5681</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002133825894896309</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01170521069279354</v>
+        <v>0.01180657170229629</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -979,19 +979,19 @@
         <v>12257</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7170</v>
+        <v>7140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18748</v>
+        <v>18661</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02902450772648686</v>
+        <v>0.02902450772648687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01697941132159417</v>
+        <v>0.01690731567437317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04439612598411339</v>
+        <v>0.04419027034763801</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1000,19 +1000,19 @@
         <v>13283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7656</v>
+        <v>8396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19705</v>
+        <v>20725</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01470304152582234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008474306352308709</v>
+        <v>0.009293344707765345</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02181124532254205</v>
+        <v>0.02294080973361447</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>480124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>475519</v>
+        <v>475470</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>481151</v>
@@ -1038,7 +1038,7 @@
         <v>0.9978661741051037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9882947893072063</v>
+        <v>0.9881934282977044</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>410025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>403534</v>
+        <v>403621</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>415112</v>
+        <v>415142</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9709754922735131</v>
+        <v>0.9709754922735132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9556038740158886</v>
+        <v>0.955809729652362</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9830205886784062</v>
+        <v>0.9830926843256271</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1048</v>
@@ -1071,19 +1071,19 @@
         <v>890150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>883728</v>
+        <v>882708</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>895777</v>
+        <v>895037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9852969584741778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9781887546774577</v>
+        <v>0.9770591902663854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9915256936476912</v>
+        <v>0.9907066552922346</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>8172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3412</v>
+        <v>3963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15797</v>
+        <v>16221</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01735866248549216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007247614367713351</v>
+        <v>0.008418613060209921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03355831955002294</v>
+        <v>0.03445818342366466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1196,19 +1196,19 @@
         <v>13383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7890</v>
+        <v>7731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23975</v>
+        <v>25014</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07159339100171028</v>
+        <v>0.07159339100171026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04220781154105759</v>
+        <v>0.04135656051840631</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1282549825762649</v>
+        <v>0.133815024908997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1217,19 +1217,19 @@
         <v>21554</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13850</v>
+        <v>13675</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34269</v>
+        <v>32438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03277359879670484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02105946054737273</v>
+        <v>0.02079258557781729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0521055460435484</v>
+        <v>0.04932257232557164</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>462575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454950</v>
+        <v>454526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467335</v>
+        <v>466784</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.982641337514508</v>
+        <v>0.9826413375145079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9664416804499777</v>
+        <v>0.9655418165763343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9927523856322868</v>
+        <v>0.9915813869397899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>271</v>
@@ -1267,19 +1267,19 @@
         <v>173546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162954</v>
+        <v>161915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179039</v>
+        <v>179198</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9284066089982898</v>
+        <v>0.9284066089982896</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.871745017423735</v>
+        <v>0.866184975091003</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9577921884589424</v>
+        <v>0.9586434394815937</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>749</v>
@@ -1288,19 +1288,19 @@
         <v>636121</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623406</v>
+        <v>625237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643825</v>
+        <v>644000</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9672264012032953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9478944539564518</v>
+        <v>0.9506774276744285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9789405394526274</v>
+        <v>0.9792074144221828</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>13277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7305</v>
+        <v>6877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22757</v>
+        <v>22293</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01177205531667513</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006476761885986896</v>
+        <v>0.006097476108291859</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02017709383032375</v>
+        <v>0.01976572187000752</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1413,19 +1413,19 @@
         <v>43468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32815</v>
+        <v>33216</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57245</v>
+        <v>55831</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05064102116623111</v>
+        <v>0.0506410211662311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03822955006693134</v>
+        <v>0.0386970357995414</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06669155407056519</v>
+        <v>0.06504368294961332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1434,19 +1434,19 @@
         <v>56745</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44507</v>
+        <v>44979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71129</v>
+        <v>72044</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02856956005653711</v>
+        <v>0.02856956005653712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02240790758842132</v>
+        <v>0.02264532900343747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03581138444078713</v>
+        <v>0.03627181427465032</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1114584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1105104</v>
+        <v>1105568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1120556</v>
+        <v>1120984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9882279446833249</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9798229061696762</v>
+        <v>0.9802342781299925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9935232381140129</v>
+        <v>0.9939025238917084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1166</v>
@@ -1484,19 +1484,19 @@
         <v>814892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>801115</v>
+        <v>802529</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>825545</v>
+        <v>825144</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9493589788337691</v>
+        <v>0.949358978833769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.933308445929435</v>
+        <v>0.9349563170503867</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9617704499330688</v>
+        <v>0.9613029642004587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2265</v>
@@ -1505,19 +1505,19 @@
         <v>1929475</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1915091</v>
+        <v>1914176</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1941713</v>
+        <v>1941241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9714304399434629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.964188615559213</v>
+        <v>0.9637281857253497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9775920924115787</v>
+        <v>0.9773546709965626</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>11869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5920</v>
+        <v>6355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21134</v>
+        <v>22707</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02098981389311101</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01046903612543612</v>
+        <v>0.01123973399853238</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03737686535627012</v>
+        <v>0.04015791926967305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1630,19 +1630,19 @@
         <v>51506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41073</v>
+        <v>41482</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66228</v>
+        <v>66571</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06239053460567044</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04975240433745614</v>
+        <v>0.05024840142020885</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08022247221649992</v>
+        <v>0.08063869623919863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1651,19 +1651,19 @@
         <v>63375</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50380</v>
+        <v>49682</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80460</v>
+        <v>80194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04556101586276431</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0362190817371695</v>
+        <v>0.03571722716115758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0578439365992981</v>
+        <v>0.05765222413766423</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>553573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>544308</v>
+        <v>542735</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>559522</v>
+        <v>559087</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9790101861068889</v>
+        <v>0.9790101861068892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9626231346437291</v>
+        <v>0.9598420807303278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9895309638745641</v>
+        <v>0.9887602660014676</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1208</v>
@@ -1701,19 +1701,19 @@
         <v>774042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>759320</v>
+        <v>758977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>784475</v>
+        <v>784066</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9376094653943298</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9197775277835003</v>
+        <v>0.9193613037608018</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.950247595662544</v>
+        <v>0.9497515985797913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1741</v>
@@ -1722,19 +1722,19 @@
         <v>1327615</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1310530</v>
+        <v>1310796</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1340610</v>
+        <v>1341308</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9544389841372355</v>
+        <v>0.9544389841372357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9421560634007019</v>
+        <v>0.9423477758623358</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9637809182628305</v>
+        <v>0.9642827728388423</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>3055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8637</v>
+        <v>8012</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01287716963072694</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003446203081196637</v>
+        <v>0.003357527858418263</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03640740408607438</v>
+        <v>0.03377446169708352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1847,19 +1847,19 @@
         <v>18039</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11520</v>
+        <v>12144</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26177</v>
+        <v>26148</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02145248198781155</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01370068347627789</v>
+        <v>0.01444263906822197</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03113142320482086</v>
+        <v>0.03109727243651607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1868,19 +1868,19 @@
         <v>21093</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14630</v>
+        <v>14434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29949</v>
+        <v>29925</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0195655308086218</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01357021887008631</v>
+        <v>0.01338810949975763</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02777964936253704</v>
+        <v>0.02775707665413124</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>234173</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228591</v>
+        <v>229216</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236410</v>
+        <v>236432</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9871228303692732</v>
+        <v>0.9871228303692731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9635925959139258</v>
+        <v>0.9662255383029165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9965537969188035</v>
+        <v>0.9966424721415816</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1127</v>
@@ -1918,19 +1918,19 @@
         <v>822822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>814684</v>
+        <v>814713</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>829341</v>
+        <v>828717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9785475180121885</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9688685767951788</v>
+        <v>0.9689027275634837</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.986299316523722</v>
+        <v>0.9855573609317779</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1236</v>
@@ -1939,19 +1939,19 @@
         <v>1056996</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1048140</v>
+        <v>1048164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1063459</v>
+        <v>1063655</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9804344691913781</v>
+        <v>0.980434469191378</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9722203506374638</v>
+        <v>0.9722429233458695</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9864297811299135</v>
+        <v>0.9866118905002428</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>39908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29580</v>
+        <v>28069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52873</v>
+        <v>54050</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01163461818349015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008623489007308924</v>
+        <v>0.008183113163637611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01541440177378397</v>
+        <v>0.0157574063538906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>215</v>
@@ -2064,19 +2064,19 @@
         <v>152942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132852</v>
+        <v>132470</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>177623</v>
+        <v>176058</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04225679071830878</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0367060183336612</v>
+        <v>0.03660054001469055</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04907585130596253</v>
+        <v>0.04864333669467043</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -2085,19 +2085,19 @@
         <v>192850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168202</v>
+        <v>167389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218824</v>
+        <v>218045</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02735670989274794</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02386024942399017</v>
+        <v>0.02374492558951001</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03104113376392637</v>
+        <v>0.03093062916942126</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3390213</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3377248</v>
+        <v>3376071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3400541</v>
+        <v>3402052</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.98836538181651</v>
+        <v>0.9883653818165099</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9845855982262162</v>
+        <v>0.9842425936461094</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9913765109926913</v>
+        <v>0.9918168868363624</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5008</v>
@@ -2135,19 +2135,19 @@
         <v>3466413</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3441732</v>
+        <v>3443297</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3486503</v>
+        <v>3486885</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9577432092816913</v>
+        <v>0.9577432092816911</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9509241486940373</v>
+        <v>0.9513566633053295</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9632939816663388</v>
+        <v>0.9633994599853093</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8253</v>
@@ -2156,19 +2156,19 @@
         <v>6856626</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6830652</v>
+        <v>6831431</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6881274</v>
+        <v>6882087</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.972643290107252</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9689588662360737</v>
+        <v>0.9690693708305785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9761397505760102</v>
+        <v>0.9762550744104899</v>
       </c>
     </row>
     <row r="24">
